--- a/table.xlsx
+++ b/table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -62,13 +62,7 @@
     <t xml:space="preserve">g</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_4err</t>
+    <t xml:space="preserve">-k*m*g*x_1*x_2*x_3+250000</t>
   </si>
 </sst>
 </file>
@@ -171,8 +165,8 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,17 +457,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -494,239 +488,252 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">EXP(B2)*SIN(D2)*COS(F2)</f>
-        <v>1.04664854295762</v>
+        <f aca="false">-$M$2*$N$2*$O$2*D2*F2*B2+250000</f>
+        <v>248383</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.311553916948359</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.372890836168741</v>
+        <f aca="false">0.5</f>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.883613936175416</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.574737280212655</v>
+        <f aca="false">0.01</f>
+        <v>0.01</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.130440998142345</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0583971857629317</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0474969487065833</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.789396071675813</v>
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <f aca="false">F2</f>
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <f aca="false">G2</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>9.8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <f aca="false">EXP(B3)*SIN(D3)*COS(F3)</f>
-        <v>0.0258522052283162</v>
+        <f aca="false">-$M$2*$N$2*$O$2*D3*F3*B3+250000</f>
+        <v>237064</v>
       </c>
       <c r="B3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.243699464960789</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.506703117911395</v>
+        <f aca="false">0.5</f>
+        <v>0.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0282587642109841</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.307804376468692</v>
+        <f aca="false">0.01</f>
+        <v>0.01</v>
       </c>
       <c r="F3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.771198946725037</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.466062405445017</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.107791812606921</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.771300740772632</v>
-      </c>
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <f aca="false">F3</f>
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <f aca="false">G3</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <f aca="false">EXP(B4)*SIN(D4)*COS(F4)</f>
-        <v>0.334018378196878</v>
+        <f aca="false">-$M$2*$N$2*$O$2*D4*F4*B4+250000</f>
+        <v>206341</v>
       </c>
       <c r="B4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.124634624392312</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.514020296025611</v>
+        <f aca="false">0.5</f>
+        <v>0.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.371100372029747</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.360794875173387</v>
+        <f aca="false">0.01</f>
+        <v>0.01</v>
       </c>
       <c r="F4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.621270251345834</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.676224146789392</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.994909710646129</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.387069909801234</v>
-      </c>
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">F4</f>
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <f aca="false">G4</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <f aca="false">EXP(B5)*SIN(D5)*COS(F5)</f>
-        <v>0.165058898711746</v>
+        <f aca="false">-$M$2*$N$2*$O$2*D5*F5*B5+250000</f>
+        <v>146512</v>
       </c>
       <c r="B5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.248051011810509</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.443876555611058</v>
+        <f aca="false">0.5</f>
+        <v>0.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.139641617472805</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.925901739666067</v>
+        <f aca="false">0.01</f>
+        <v>0.01</v>
       </c>
       <c r="F5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.38882048252594</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.585350675134459</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.904226410864244</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.383564720115525</v>
-      </c>
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">F5</f>
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">G5</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <f aca="false">EXP(B6)*SIN(D6)*COS(F6)</f>
-        <v>1.36533463167648</v>
+        <f aca="false">-$M$2*$N$2*$O$2*D6*F6*B6+250000</f>
+        <v>47875</v>
       </c>
       <c r="B6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.58785456108266</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0111721193669687</v>
+        <f aca="false">0.5</f>
+        <v>0.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.877667733330005</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.487672706212562</v>
+        <f aca="false">0.01</f>
+        <v>0.01</v>
       </c>
       <c r="F6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.167633259134169</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.302498402141113</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.161911075036931</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0915026867216798</v>
-      </c>
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">F6</f>
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">G6</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <f aca="false">EXP(B7)*SIN(D7)*COS(F7)</f>
-        <v>0.803097315638259</v>
+        <f aca="false">-$M$2*$N$2*$O$2*D7*F7*B7+250000</f>
+        <v>-99272</v>
       </c>
       <c r="B7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.517520185313824</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.042573345518234</v>
+        <f aca="false">0.5</f>
+        <v>0.5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.499299174871731</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.147622424419692</v>
+        <f aca="false">0.01</f>
+        <v>0.01</v>
       </c>
       <c r="F7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0264166422266107</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.681120453328233</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.912393133835653</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.790931931693388</v>
-      </c>
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">F7</f>
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">G7</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
